--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2863.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2863.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.198822048964638</v>
+        <v>1.093609571456909</v>
       </c>
       <c r="B1">
-        <v>2.184314385805197</v>
+        <v>1.603262305259705</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.525516748428345</v>
       </c>
       <c r="D1">
-        <v>2.20780698707368</v>
+        <v>3.666451454162598</v>
       </c>
       <c r="E1">
-        <v>1.209842962726302</v>
+        <v>0.9699335098266602</v>
       </c>
     </row>
   </sheetData>
